--- a/data/trans_dic/P15D$consultar-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Edad-trans_dic.xlsx
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02667581761591964</v>
+        <v>0.02543805798908107</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01569341899149087</v>
+        <v>0.01543585826967308</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09957690271160553</v>
+        <v>0.09724308878873304</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03065827022538789</v>
+        <v>0.03078908671946015</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06552137387135067</v>
+        <v>0.06660981589506179</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03103217301370723</v>
+        <v>0.03134379402149643</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03413734447488246</v>
+        <v>0.03434534443209202</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2404309752249967</v>
+        <v>0.2301365142126618</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1403355559008747</v>
+        <v>0.1452351599920726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1206153835961767</v>
+        <v>0.118795582447582</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5877240162890076</v>
+        <v>0.5832675718767363</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6622683851410307</v>
+        <v>0.6623829735358528</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2576377980532177</v>
+        <v>0.2515023512309185</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2729433588449654</v>
+        <v>0.2575471401465565</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4531075329792144</v>
+        <v>0.4358735276715129</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2802775122995178</v>
+        <v>0.2925740260847001</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1374863957408052</v>
+        <v>0.1431168623498907</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1019641213503196</v>
+        <v>0.1017772903649671</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3707174335411317</v>
+        <v>0.3573100027231754</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1275020120144963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05764719535885616</v>
+        <v>0.05764719535885617</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0.1141166516990714</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1687105360116716</v>
+        <v>0.1687105360116717</v>
       </c>
     </row>
     <row r="8">
@@ -844,38 +844,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02726032972025447</v>
+        <v>0.02816586584209977</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03189553377741072</v>
+        <v>0.03321620991286477</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05626292728549103</v>
+        <v>0.0544700231663363</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.02878004236280694</v>
+        <v>0.02513874522650253</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1931293808931701</v>
+        <v>0.1912999355193999</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01901712468707164</v>
+        <v>0.0191555728593686</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04600644833898509</v>
+        <v>0.0415377885774802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05075082041091525</v>
+        <v>0.05118621681361706</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07846803437742537</v>
+        <v>0.08131477777085781</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2477094251535153</v>
+        <v>0.23744687024624</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1742497782465602</v>
+        <v>0.1741057858815312</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2462021054940101</v>
+        <v>0.2263335007222564</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2789295922275907</v>
+        <v>0.3350625385664888</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.2334014618468026</v>
+        <v>0.2355747559908643</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2690384171384698</v>
+        <v>0.258187248053556</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6739756187807089</v>
+        <v>0.6803158123629744</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1728015031470663</v>
+        <v>0.1863014829075416</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1505223416861869</v>
+        <v>0.1513865080249255</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1993290146083304</v>
+        <v>0.2040853866779461</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3172413616312136</v>
+        <v>0.3319349971441061</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.1133172054280004</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1939055443277639</v>
+        <v>0.193905544327764</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.250381795682321</v>
@@ -976,38 +976,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07145238381034974</v>
+        <v>0.1069245158386494</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0451384802508744</v>
+        <v>0.04099783523080385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07671031591632864</v>
+        <v>0.07068646369944184</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02991398360761898</v>
+        <v>0.0302117064912947</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03184958391949386</v>
+        <v>0.03444910446203919</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08830626269885161</v>
+        <v>0.09620983460923051</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1072155461198839</v>
+        <v>0.1034305218418055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05103074452729954</v>
+        <v>0.05314590772899</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0736410278550951</v>
+        <v>0.07517801616100339</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03799435838790031</v>
+        <v>0.03954267095436748</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5969323268695541</v>
+        <v>0.5843671867812026</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2332172175503412</v>
+        <v>0.2290220715680933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3376326919825123</v>
+        <v>0.3118769361841538</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.5274402654073695</v>
+        <v>0.5262340722816343</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2661774425345834</v>
+        <v>0.2388953735538207</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2816090924626323</v>
+        <v>0.2810483245813761</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3389040026459111</v>
+        <v>0.3428512116921283</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4848647105591588</v>
+        <v>0.4678859292420702</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2032220913339911</v>
+        <v>0.1937625822226457</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2477123505032602</v>
+        <v>0.249846717721479</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1513544180785202</v>
+        <v>0.1683353912440785</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1097,7 @@
         <v>0.1391229132757325</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09507924377860358</v>
+        <v>0.09507924377860356</v>
       </c>
     </row>
     <row r="14">
@@ -1108,38 +1108,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04664373069750932</v>
+        <v>0.04708283933890988</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05879869813228909</v>
+        <v>0.05956941165507016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.036178950872187</v>
+        <v>0.03531276866740916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0211074190844634</v>
+        <v>0.02035139199200527</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04054636224384532</v>
+        <v>0.03997346267963205</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0439601403187445</v>
+        <v>0.04166118387394886</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03266675348201772</v>
+        <v>0.03299395316686118</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05491050145149705</v>
+        <v>0.04584769745248481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.059863861025031</v>
+        <v>0.06025519000078823</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04705127353314375</v>
+        <v>0.04678043778690501</v>
       </c>
     </row>
     <row r="15">
@@ -1150,38 +1150,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3768689297826534</v>
+        <v>0.4118869732837133</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3161715736698684</v>
+        <v>0.3212058487619215</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3218530030330197</v>
+        <v>0.3242106567252848</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1807698535666864</v>
+        <v>0.1881106978181701</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.2801676752538312</v>
+        <v>0.2628598938058719</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3145583312133411</v>
+        <v>0.3130078341716138</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2276379428918436</v>
+        <v>0.2273998232246617</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3026074153341871</v>
+        <v>0.2743399912439017</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2255956709865517</v>
+        <v>0.2222980481967057</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2631061247861689</v>
+        <v>0.2571283138064221</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1657375716128341</v>
+        <v>0.158719259719245</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1226130631067017</v>
+        <v>0.1226130631067016</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1035314831022025</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05378226544194276</v>
+        <v>0.04968055458340973</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.05349466164611177</v>
+        <v>0.05141671371206517</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06959626704698953</v>
+        <v>0.06767905353734965</v>
       </c>
     </row>
     <row r="18">
@@ -1280,36 +1280,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4932479383618208</v>
+        <v>0.4351416456554117</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.3039080854075483</v>
+        <v>0.3794857178281019</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2847955955429415</v>
+        <v>0.2892751110048035</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5108528443734034</v>
+        <v>0.4184406600233897</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1785204907942236</v>
+        <v>0.181469039110238</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.2250928377677726</v>
+        <v>0.2225660989264559</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3164765655847134</v>
+        <v>0.3041302694598212</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1400319400330507</v>
+        <v>0.1193253112703466</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1203731781012313</v>
+        <v>0.1196426496717373</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2020655973116536</v>
+        <v>0.2100587523137245</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>0.2158037218656901</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.09657163848830792</v>
+        <v>0.09657163848830794</v>
       </c>
     </row>
     <row r="20">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08228921632557204</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1381,25 +1381,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1137473881367669</v>
+        <v>0.1152312937888946</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0680215100080734</v>
+        <v>0.06821354358473913</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04455598122676403</v>
+        <v>0.04276814121996646</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.068876497482903</v>
+        <v>0.06802038734960211</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1149013525559242</v>
+        <v>0.1157199217158294</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04405084085276884</v>
+        <v>0.04379842817013185</v>
       </c>
     </row>
     <row r="21">
@@ -1411,37 +1411,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.293423208915199</v>
+        <v>0.2476719011487598</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6079255779586158</v>
+        <v>0.5565852584206061</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2635696650635572</v>
+        <v>0.2907134603402634</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5415227196709784</v>
+        <v>0.5480695750375187</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4253917600201162</v>
+        <v>0.4274093411927692</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3662791599478561</v>
+        <v>0.3773982422803361</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1917235484087701</v>
+        <v>0.2100888213896555</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3424890304909706</v>
+        <v>0.30463007705254</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2860315639157583</v>
+        <v>0.2868891769980811</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3563711142799947</v>
+        <v>0.3718542656891318</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1757915089165827</v>
+        <v>0.1696645633222177</v>
       </c>
     </row>
     <row r="22">
@@ -1465,7 +1465,7 @@
         <v>0.2660958081917968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1707614649183138</v>
+        <v>0.1707614649183139</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1534702800894926</v>
@@ -1504,34 +1504,34 @@
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
-        <v>0.1026053468190877</v>
+        <v>0.1031650594723084</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06945428737170156</v>
+        <v>0.07545623200672545</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04697582648964426</v>
+        <v>0.04680510401488994</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0305598151973849</v>
+        <v>0.03166088506394584</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1752306647910492</v>
+        <v>0.1784086326522874</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04165952907562784</v>
+        <v>0.0414730334153272</v>
       </c>
       <c r="L23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08078645007645151</v>
+        <v>0.07280325500635584</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1722865783098118</v>
+        <v>0.1696781541457481</v>
       </c>
     </row>
     <row r="24">
@@ -1542,38 +1542,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6880931204620553</v>
+        <v>0.6788489243894396</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.4976418249904777</v>
+        <v>0.4990538441137524</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3194562443874667</v>
+        <v>0.3589414996135804</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4009657014396956</v>
+        <v>0.3656347035100353</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09767115339590812</v>
+        <v>0.09326847107274074</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2736181441224114</v>
+        <v>0.2760934913080811</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.336820210450992</v>
+        <v>0.3516414810997505</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3409087536724758</v>
+        <v>0.334986961977584</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.07051786058817269</v>
+        <v>0.05836898274122445</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.278739733038295</v>
+        <v>0.2775767295592234</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3121235752719371</v>
+        <v>0.3116737688413503</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.1152862396046655</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1348207847139925</v>
+        <v>0.1348207847139926</v>
       </c>
     </row>
     <row r="26">
@@ -1632,40 +1632,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08526873387440979</v>
+        <v>0.07880360437150107</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05446086970180992</v>
+        <v>0.05107066334351698</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08935257637601915</v>
+        <v>0.08769774928772353</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05344117735633263</v>
+        <v>0.05161680792172803</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06715339164223137</v>
+        <v>0.06798481995835218</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05387478186468465</v>
+        <v>0.05536053730064572</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06323448786625396</v>
+        <v>0.06310310647467961</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1397618249107318</v>
+        <v>0.1399433815853128</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09049492133818282</v>
+        <v>0.09003559529541018</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.06205947829665855</v>
+        <v>0.06132875013888575</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0863640675451105</v>
+        <v>0.08643674821217456</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1065293528153712</v>
+        <v>0.1088463010599489</v>
       </c>
     </row>
     <row r="27">
@@ -1676,40 +1676,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2034343881279127</v>
+        <v>0.2067123141464683</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.121138025179667</v>
+        <v>0.1220921038702031</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1805958467185067</v>
+        <v>0.1743722190095187</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1396878547870321</v>
+        <v>0.1366979692729175</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2112228102569922</v>
+        <v>0.2211794543443237</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1246655032603055</v>
+        <v>0.1252882270091185</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1504273535815038</v>
+        <v>0.1541711897881559</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2298497208102328</v>
+        <v>0.2274874451206909</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1880831027163374</v>
+        <v>0.186830918338989</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1120813445937581</v>
+        <v>0.1111973706930812</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1512585629214219</v>
+        <v>0.1534884609491254</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1674040507758118</v>
+        <v>0.1699762688795675</v>
       </c>
     </row>
     <row r="28">
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>899</v>
+        <v>858</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1054</v>
+        <v>1030</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2903</v>
+        <v>2951</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2802</v>
+        <v>2830</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1478</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="7">
@@ -2027,40 +2027,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8106</v>
+        <v>7759</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8368</v>
+        <v>8660</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5305</v>
+        <v>5225</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12164</v>
+        <v>12072</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7011</v>
+        <v>7013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7899</v>
+        <v>7711</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>4985</v>
+        <v>4704</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10237</v>
+        <v>9847</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12417</v>
+        <v>12962</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12414</v>
+        <v>12922</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6347</v>
+        <v>6335</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16048</v>
+        <v>15468</v>
       </c>
     </row>
     <row r="8">
@@ -2163,38 +2163,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>952</v>
+        <v>984</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2626</v>
+        <v>2734</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2861</v>
+        <v>2770</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>1095</v>
+        <v>956</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2962</v>
+        <v>2934</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5537</v>
+        <v>4999</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3732</v>
+        <v>3764</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3808</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="11">
@@ -2205,38 +2205,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8654</v>
+        <v>8295</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14344</v>
+        <v>14332</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12521</v>
+        <v>11511</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9259</v>
+        <v>11123</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>8876</v>
+        <v>8959</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6102</v>
+        <v>5855</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10337</v>
+        <v>10434</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9243</v>
+        <v>9965</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>18115</v>
+        <v>18219</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>14658</v>
+        <v>15008</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>15397</v>
+        <v>16110</v>
       </c>
     </row>
     <row r="12">
@@ -2339,38 +2339,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1067</v>
+        <v>1596</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2411</v>
+        <v>2190</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2751</v>
+        <v>2535</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>798</v>
+        <v>863</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2691</v>
+        <v>2931</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3039</v>
+        <v>2932</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4225</v>
+        <v>4400</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4485</v>
+        <v>4579</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2622</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="15">
@@ -2381,38 +2381,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8913</v>
+        <v>8725</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12456</v>
+        <v>12232</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12107</v>
+        <v>11183</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>7076</v>
+        <v>7060</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7822</v>
+        <v>7021</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7054</v>
+        <v>7040</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10326</v>
+        <v>10446</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13744</v>
+        <v>13263</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16826</v>
+        <v>16043</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15087</v>
+        <v>15217</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10446</v>
+        <v>11618</v>
       </c>
     </row>
     <row r="16">
@@ -2515,38 +2515,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2126</v>
+        <v>2154</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1181</v>
+        <v>1138</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1434</v>
+        <v>1359</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3907</v>
+        <v>3262</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3192</v>
+        <v>3213</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4166</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="19">
@@ -2557,38 +2557,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7363</v>
+        <v>8047</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11433</v>
+        <v>11615</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9280</v>
+        <v>9348</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10111</v>
+        <v>10522</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>9802</v>
+        <v>9196</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7702</v>
+        <v>7664</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7425</v>
+        <v>7417</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8837</v>
+        <v>8012</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>16050</v>
+        <v>15815</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14028</v>
+        <v>13710</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>14676</v>
+        <v>14055</v>
       </c>
     </row>
     <row r="20">
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1694</v>
+        <v>1565</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>2049</v>
+        <v>1969</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4858</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="23">
@@ -2731,36 +2731,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4622</v>
+        <v>4078</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>4251</v>
+        <v>5309</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8970</v>
+        <v>9111</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5043</v>
+        <v>4130</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7454</v>
+        <v>7578</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>8622</v>
+        <v>8525</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6090</v>
+        <v>5852</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>7657</v>
+        <v>6524</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5338</v>
+        <v>5306</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>14104</v>
+        <v>14662</v>
       </c>
     </row>
     <row r="24">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
@@ -2876,25 +2876,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2881</v>
+        <v>2919</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1613</v>
+        <v>1549</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2936</v>
+        <v>2900</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4623</v>
+        <v>4656</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2394</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="27">
@@ -2906,37 +2906,37 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>5076</v>
+        <v>4284</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6646</v>
+        <v>6085</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4780</v>
+        <v>5273</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4935</v>
+        <v>4995</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10776</v>
+        <v>10827</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10732</v>
+        <v>11058</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6942</v>
+        <v>7607</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4715</v>
+        <v>4194</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>12193</v>
+        <v>12230</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14338</v>
+        <v>14961</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>9554</v>
+        <v>9221</v>
       </c>
     </row>
     <row r="28">
@@ -3043,34 +3043,34 @@
       </c>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="n">
-        <v>1558</v>
+        <v>1567</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1598</v>
+        <v>1736</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1226</v>
+        <v>1271</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>9928</v>
+        <v>10108</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>4469</v>
+        <v>4027</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>13726</v>
+        <v>13518</v>
       </c>
     </row>
     <row r="31">
@@ -3081,38 +3081,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4082</v>
+        <v>4028</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>7557</v>
+        <v>7578</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>7352</v>
+        <v>8260</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>9062</v>
+        <v>8263</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5293</v>
+        <v>5054</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10981</v>
+        <v>11080</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>19082</v>
+        <v>19922</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>9727</v>
+        <v>9558</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>5375</v>
+        <v>4449</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>15419</v>
+        <v>15354</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>24866</v>
+        <v>24830</v>
       </c>
     </row>
     <row r="32">
@@ -3215,40 +3215,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>10495</v>
+        <v>9699</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>15454</v>
+        <v>14492</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>17838</v>
+        <v>17507</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>11812</v>
+        <v>11409</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>6299</v>
+        <v>6377</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>13703</v>
+        <v>14081</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>12031</v>
+        <v>12006</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>32450</v>
+        <v>32492</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>19627</v>
+        <v>19527</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>33395</v>
+        <v>33002</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>33673</v>
+        <v>33702</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>48279</v>
+        <v>49329</v>
       </c>
     </row>
     <row r="35">
@@ -3259,40 +3259,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>25038</v>
+        <v>25442</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>34375</v>
+        <v>34646</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>36053</v>
+        <v>34811</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>30874</v>
+        <v>30213</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>19814</v>
+        <v>20748</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>31708</v>
+        <v>31866</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>28621</v>
+        <v>29334</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>53367</v>
+        <v>52818</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>40792</v>
+        <v>40520</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>60312</v>
+        <v>59837</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>58976</v>
+        <v>59845</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>75868</v>
+        <v>77034</v>
       </c>
     </row>
     <row r="36">
